--- a/mobi_client/mobi_client/mobi_config/excel/010_英雄表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/010_英雄表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8FB16E-F84E-4654-B8AD-AAD3897002B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D648B96-8AC1-4EF7-ADAE-4DA339D24177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="0" windowWidth="13500" windowHeight="20835" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26070" yWindow="1455" windowWidth="13500" windowHeight="16545" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero|id(10,99)" sheetId="4" r:id="rId1"/>
